--- a/excel_result/compare resutlts/competition_01_compare.xlsx
+++ b/excel_result/compare resutlts/competition_01_compare.xlsx
@@ -1,26 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Desktop\Uczelnia\Metaheurystyki\Metaheuristics-project-IHTC\excel_result\compare resutlts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27912EC9-FECF-464E-B0C5-27E317EDF662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="compare" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>countTotalHard</t>
+  </si>
+  <si>
+    <t>countTotalSoft</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>sa_random</t>
+  </si>
+  <si>
+    <t>sa_greedy</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>5-worst</t>
+  </si>
+  <si>
+    <t>10 -best</t>
+  </si>
+  <si>
+    <t>10-worst</t>
+  </si>
+  <si>
+    <t>15-best</t>
+  </si>
+  <si>
+    <t>15-worst</t>
+  </si>
+  <si>
+    <t>30-best</t>
+  </si>
+  <si>
+    <t>30-worst</t>
+  </si>
+  <si>
+    <t>5 -best</t>
+  </si>
+  <si>
+    <t>random - best</t>
+  </si>
+  <si>
+    <t>random - worst</t>
+  </si>
+  <si>
+    <t>greedy - best</t>
+  </si>
+  <si>
+    <t>greedy - worst</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +107,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +178,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +503,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1">
+        <v>184</v>
+      </c>
+      <c r="D2" s="4">
+        <v>117</v>
+      </c>
+      <c r="E2" s="7">
+        <v>173</v>
+      </c>
+      <c r="F2" s="8">
+        <v>120</v>
+      </c>
+      <c r="G2" s="7">
+        <v>177</v>
+      </c>
+      <c r="H2" s="7">
+        <v>119</v>
+      </c>
+      <c r="I2" s="8">
+        <v>161</v>
+      </c>
+      <c r="J2" s="8">
+        <v>113</v>
+      </c>
+      <c r="K2" s="7">
+        <v>160</v>
+      </c>
+      <c r="L2" s="11">
+        <v>63</v>
+      </c>
+      <c r="M2" s="12">
+        <v>91</v>
+      </c>
+      <c r="N2" s="11">
+        <v>61</v>
+      </c>
+      <c r="O2" s="11">
+        <v>91</v>
+      </c>
+      <c r="P2" s="11">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>90</v>
+      </c>
+      <c r="R2" s="11">
+        <v>57</v>
+      </c>
+      <c r="S2" s="12">
+        <v>89</v>
+      </c>
+      <c r="T2" s="15">
+        <v>91</v>
+      </c>
+      <c r="U2" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>390</v>
+      </c>
+      <c r="C3" s="1">
+        <v>397</v>
+      </c>
+      <c r="D3" s="4">
+        <v>647</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1422</v>
+      </c>
+      <c r="F3" s="8">
+        <v>566</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1231</v>
+      </c>
+      <c r="H3" s="7">
+        <v>508</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1226</v>
+      </c>
+      <c r="J3" s="8">
+        <v>737</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1852</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2670</v>
+      </c>
+      <c r="M3" s="12">
+        <v>3001</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2339</v>
+      </c>
+      <c r="O3" s="11">
+        <v>3001</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1310</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>3010</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1726</v>
+      </c>
+      <c r="S3" s="12">
+        <v>3001</v>
+      </c>
+      <c r="T3" s="15">
+        <v>3001</v>
+      </c>
+      <c r="U3" s="15">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4449454</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6443736</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4102216</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6069348</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4205057</v>
+      </c>
+      <c r="G4" s="9">
+        <v>6206476</v>
+      </c>
+      <c r="H4" s="9">
+        <v>4171095</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5647544</v>
+      </c>
+      <c r="J4" s="10">
+        <v>3966329</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5619076</v>
+      </c>
+      <c r="L4" s="13">
+        <v>2235359</v>
+      </c>
+      <c r="M4" s="14">
+        <v>3218261</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2162104</v>
+      </c>
+      <c r="O4" s="13">
+        <v>3218261</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2048375</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>3183365</v>
+      </c>
+      <c r="R4" s="13">
+        <v>2017117</v>
+      </c>
+      <c r="S4" s="14">
+        <v>3148261</v>
+      </c>
+      <c r="T4" s="16">
+        <v>3218261</v>
+      </c>
+      <c r="U4" s="16">
+        <v>3218261.0000009998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>